--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3537484.41490562</v>
+        <v>3533226.149252384</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7957868.264493329</v>
+        <v>7957868.264493327</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.93856390941626</v>
+        <v>98.518102170991</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916328</v>
       </c>
       <c r="S2" t="n">
-        <v>3.385778989913274</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>156.1402762037131</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>45.84481919370732</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353349</v>
+        <v>21.62032152353343</v>
       </c>
       <c r="S3" t="n">
-        <v>148.187383735635</v>
+        <v>146.682579483948</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>7.194834222910936</v>
       </c>
       <c r="I4" t="n">
-        <v>26.43298538731156</v>
+        <v>123.5587419097206</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>233.0887554577361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>22.99054469498532</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>64.60559526151326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>198.5622246230542</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>353.7277987503138</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>133.1109372625764</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>144.887909561579</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>220.3879976987508</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.89983420622069</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571659</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>103.1686991936193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716112</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>36.8566599330997</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>200.5095474079674</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>58.47559664514586</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>46.35517081455701</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>171.6912157329567</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3426,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>63.34420421319582</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,13 +3514,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.8420528451391</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>116.287325111933</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>162.3413016667496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2028.756181082251</v>
+        <v>1272.176122950375</v>
       </c>
       <c r="C2" t="n">
-        <v>1659.793664141839</v>
+        <v>903.2136060099635</v>
       </c>
       <c r="D2" t="n">
-        <v>1301.527965535089</v>
+        <v>544.9479074032131</v>
       </c>
       <c r="E2" t="n">
-        <v>915.7397129368446</v>
+        <v>159.1596548049689</v>
       </c>
       <c r="F2" t="n">
-        <v>504.753808147237</v>
+        <v>152.2141540557654</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730792</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512382</v>
+        <v>72.11519083088538</v>
       </c>
       <c r="K2" t="n">
-        <v>319.356318132175</v>
+        <v>151.9506691118224</v>
       </c>
       <c r="L2" t="n">
-        <v>868.7856527384575</v>
+        <v>699.7444981326151</v>
       </c>
       <c r="M2" t="n">
-        <v>1496.73819666008</v>
+        <v>1327.697042054238</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.219671700714</v>
+        <v>1951.178517094872</v>
       </c>
       <c r="O2" t="n">
-        <v>2286.775731447691</v>
+        <v>2494.726756291968</v>
       </c>
       <c r="P2" t="n">
-        <v>2394.42647417215</v>
+        <v>2602.377499016427</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4357,25 +4357,25 @@
         <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2630.251657111118</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="T2" t="n">
-        <v>2415.356021146373</v>
+        <v>2633.671635888808</v>
       </c>
       <c r="U2" t="n">
-        <v>2415.356021146373</v>
+        <v>2379.978182333879</v>
       </c>
       <c r="V2" t="n">
-        <v>2415.356021146373</v>
+        <v>2048.915294990309</v>
       </c>
       <c r="W2" t="n">
-        <v>2415.356021146373</v>
+        <v>2048.915294990309</v>
       </c>
       <c r="X2" t="n">
-        <v>2415.356021146373</v>
+        <v>2048.915294990309</v>
       </c>
       <c r="Y2" t="n">
-        <v>2415.356021146373</v>
+        <v>1658.775963014497</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>965.1304038988715</v>
+        <v>966.6504081935055</v>
       </c>
       <c r="C3" t="n">
-        <v>790.6773746177445</v>
+        <v>792.1973789123786</v>
       </c>
       <c r="D3" t="n">
-        <v>641.7429649564932</v>
+        <v>643.2629692511273</v>
       </c>
       <c r="E3" t="n">
         <v>484.0255142456718</v>
@@ -4400,10 +4400,10 @@
         <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>200.0378524679828</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>99.0088177150748</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,16 +4412,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524141</v>
+        <v>380.2766518524144</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900082</v>
+        <v>882.1470455900087</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.737331912397</v>
+        <v>1058.737331912398</v>
       </c>
       <c r="N3" t="n">
-        <v>1710.911211215106</v>
+        <v>1437.313937931688</v>
       </c>
       <c r="O3" t="n">
         <v>1984.020177892692</v>
@@ -4436,25 +4436,25 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
-        <v>1803.194896617628</v>
+        <v>1804.714900912262</v>
       </c>
       <c r="W3" t="n">
-        <v>1548.957539889426</v>
+        <v>1550.47754418406</v>
       </c>
       <c r="X3" t="n">
-        <v>1341.106039683893</v>
+        <v>1342.626043978527</v>
       </c>
       <c r="Y3" t="n">
-        <v>1133.34574091894</v>
+        <v>1134.865745213574</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.96934619119216</v>
+        <v>479.5782799458068</v>
       </c>
       <c r="C4" t="n">
-        <v>97.96934619119216</v>
+        <v>479.5782799458068</v>
       </c>
       <c r="D4" t="n">
-        <v>97.96934619119216</v>
+        <v>479.5782799458068</v>
       </c>
       <c r="E4" t="n">
-        <v>97.96934619119216</v>
+        <v>331.6651863634137</v>
       </c>
       <c r="F4" t="n">
-        <v>97.96934619119216</v>
+        <v>184.7752388655033</v>
       </c>
       <c r="G4" t="n">
-        <v>97.96934619119216</v>
+        <v>184.7752388655033</v>
       </c>
       <c r="H4" t="n">
-        <v>97.96934619119216</v>
+        <v>177.5077295494317</v>
       </c>
       <c r="I4" t="n">
-        <v>71.26936095148351</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>152.6313247131526</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>336.0342731039136</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>539.7960902856121</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>744.1475233066377</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>916.8828514249435</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>1041.16708335132</v>
       </c>
       <c r="Q4" t="n">
         <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221469</v>
+        <v>912.8607263634893</v>
       </c>
       <c r="S4" t="n">
-        <v>836.1686462697003</v>
+        <v>705.2494094117212</v>
       </c>
       <c r="T4" t="n">
-        <v>836.1686462697003</v>
+        <v>479.5782799458068</v>
       </c>
       <c r="U4" t="n">
-        <v>836.1686462697003</v>
+        <v>479.5782799458068</v>
       </c>
       <c r="V4" t="n">
-        <v>836.1686462697003</v>
+        <v>479.5782799458068</v>
       </c>
       <c r="W4" t="n">
-        <v>546.7514762327396</v>
+        <v>479.5782799458068</v>
       </c>
       <c r="X4" t="n">
-        <v>318.7619253347223</v>
+        <v>479.5782799458068</v>
       </c>
       <c r="Y4" t="n">
-        <v>97.96934619119216</v>
+        <v>479.5782799458068</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1757.628720158088</v>
+        <v>1305.40323675728</v>
       </c>
       <c r="C5" t="n">
-        <v>1388.666203217676</v>
+        <v>936.4407198168688</v>
       </c>
       <c r="D5" t="n">
-        <v>1030.400504610926</v>
+        <v>578.1750212101183</v>
       </c>
       <c r="E5" t="n">
-        <v>794.9573172798794</v>
+        <v>192.386768611874</v>
       </c>
       <c r="F5" t="n">
-        <v>788.0118165306759</v>
+        <v>185.4412678626705</v>
       </c>
       <c r="G5" t="n">
-        <v>370.9240347671034</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
         <v>52.70091953961285</v>
@@ -4573,19 +4573,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>1197.621189819594</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M5" t="n">
-        <v>1829.339000802906</v>
+        <v>1415.85439839796</v>
       </c>
       <c r="N5" t="n">
-        <v>2023.673213694888</v>
+        <v>2043.162066457806</v>
       </c>
       <c r="O5" t="n">
-        <v>2193.842239011848</v>
+        <v>2213.331091774766</v>
       </c>
       <c r="P5" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.045976980643</v>
@@ -4597,22 +4597,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.830939477471</v>
+        <v>2455.608167058293</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.830939477471</v>
+        <v>2455.608167058293</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.7680521339</v>
+        <v>2455.608167058293</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.7680521339</v>
+        <v>2455.608167058293</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.7680521339</v>
+        <v>2082.142408797214</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.628720158088</v>
+        <v>1692.003076821402</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
-        <v>1463.872370188858</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
         <v>1980.364752439338</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117.9590965714444</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C7" t="n">
-        <v>117.9590965714444</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D7" t="n">
-        <v>117.9590965714444</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E7" t="n">
-        <v>117.9590965714444</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>117.9590965714444</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>117.9590965714444</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
         <v>52.70091953961285</v>
@@ -4749,28 +4749,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>407.376266608405</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>407.376266608405</v>
+        <v>852.067697339307</v>
       </c>
       <c r="W7" t="n">
-        <v>117.9590965714444</v>
+        <v>852.067697339307</v>
       </c>
       <c r="X7" t="n">
-        <v>117.9590965714444</v>
+        <v>624.0781464412896</v>
       </c>
       <c r="Y7" t="n">
-        <v>117.9590965714444</v>
+        <v>403.2855672977595</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522.185532827041</v>
+        <v>429.9946048304836</v>
       </c>
       <c r="C8" t="n">
-        <v>1153.22301588663</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="D8" t="n">
-        <v>794.9573172798794</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="E8" t="n">
-        <v>794.9573172798794</v>
+        <v>72.69379801198481</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9714124902719</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
         <v>52.70091953961285</v>
@@ -4804,25 +4804,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.215540799241</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M8" t="n">
-        <v>1661.933351782553</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N8" t="n">
-        <v>1856.267564674535</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O8" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4831,25 +4831,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T8" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U8" t="n">
-        <v>2420.246115248354</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V8" t="n">
-        <v>2420.246115248354</v>
+        <v>1932.968190401611</v>
       </c>
       <c r="W8" t="n">
-        <v>2285.790623063933</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X8" t="n">
-        <v>1912.324864802853</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="Y8" t="n">
-        <v>1522.185532827041</v>
+        <v>816.5944448946054</v>
       </c>
     </row>
     <row r="9">
@@ -4895,7 +4895,7 @@
         <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
-        <v>1820.852439770578</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.8175589519486</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8175589519486</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D10" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
         <v>52.70091953961285</v>
@@ -4998,16 +4998,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>797.9511127930708</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>797.9511127930708</v>
+        <v>830.0214619093103</v>
       </c>
       <c r="X10" t="n">
-        <v>569.9615618950535</v>
+        <v>602.031911011293</v>
       </c>
       <c r="Y10" t="n">
-        <v>349.1689827515233</v>
+        <v>381.2393318677629</v>
       </c>
     </row>
     <row r="11">
@@ -5032,52 +5032,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>802.9288273958734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>652.8121879835377</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,43 +5272,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.71788640035</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639637</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2288.671406650707</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2622.596178821927</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>3117.921785037686</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3715.300272664238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>3715.300272664238</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O18" t="n">
-        <v>4267.210002903525</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>198.027470314254</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021782</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2061.573352863481</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1772.498126207679</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1517.813638001792</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.396467964831</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1000.406917066814</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.6143379232836</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2383.002557118212</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2878.328163333971</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3475.706650960523</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4103.304614515129</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3234.407389034259</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>3065.471206106352</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>2915.354566694016</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>2767.441473111623</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>2620.551525613713</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053497</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076438</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420636</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.199968177789</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>3455.199968177789</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>3234.407389034259</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>3524.185693912098</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1190.460190151587</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,10 +6922,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6976,10 +6976,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.7084350851671</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C37" t="n">
-        <v>696.7084350851671</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D37" t="n">
-        <v>696.7084350851671</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>548.795341502774</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2883.976121413757</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>2883.976121413757</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>2733.859482001421</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>2733.859482001421</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.987318831765</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1618.570148794804</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,25 +7727,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.8620388433919</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>408.925855915485</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>980.3030828171618</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>759.5105036736317</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>416.009188706521</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7993,13 +7993,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>210.0515402467448</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>7.3281211888727</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579958</v>
+        <v>184.7513690535324</v>
       </c>
       <c r="O3" t="n">
-        <v>117.5014371722675</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8221,22 +8221,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>86.1550019640076</v>
+        <v>278.7842827623789</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>360.5859288704241</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8461,22 +8461,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.7678996245036</v>
+        <v>213.8698272853573</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8543,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>441.9679254493649</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>125.5341284403485</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>37.1260136526046</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>181.7279934189951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16.89590291932089</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>107.048541647123</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>179.3544845744802</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>54.01843965608049</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>82.07684380973542</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>124.9899273367982</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737409.295689135</v>
+        <v>737409.2956891349</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943785</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="G2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132555</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918881</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008499799</v>
+        <v>4906.247008499352</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765847</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,25 +26386,25 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002806</v>
+        <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.654869427746673e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157137</v>
+        <v>128077.5968157139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909051</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,37 +26426,37 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="G4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.424496707319</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.424496707387</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="K4" t="n">
+        <v>6897.424496707402</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.42449670739</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051737</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-305384.5121288481</v>
+        <v>-305384.512128848</v>
       </c>
       <c r="C6" t="n">
-        <v>478047.4998568677</v>
+        <v>478047.4998568684</v>
       </c>
       <c r="D6" t="n">
-        <v>482953.7468653682</v>
+        <v>482953.7468653677</v>
       </c>
       <c r="E6" t="n">
-        <v>-137097.6968839434</v>
+        <v>-137445.0761383011</v>
       </c>
       <c r="F6" t="n">
-        <v>638590.650392641</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="G6" t="n">
-        <v>638590.6503926407</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="H6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="I6" t="n">
-        <v>638590.6503926406</v>
+        <v>638243.271138284</v>
       </c>
       <c r="J6" t="n">
-        <v>466229.6579923603</v>
+        <v>465882.2787380029</v>
       </c>
       <c r="K6" t="n">
-        <v>638590.6503926407</v>
+        <v>638243.2711382839</v>
       </c>
       <c r="L6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382838</v>
       </c>
       <c r="M6" t="n">
-        <v>510513.0535769273</v>
+        <v>510165.6743225699</v>
       </c>
       <c r="N6" t="n">
-        <v>638590.6503926408</v>
+        <v>638243.2711382837</v>
       </c>
       <c r="O6" t="n">
-        <v>638590.6503926406</v>
+        <v>638243.2711382837</v>
       </c>
       <c r="P6" t="n">
-        <v>638590.6503926406</v>
+        <v>638243.2711382838</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225505</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26798,16 +26798,16 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225505</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515011</v>
+        <v>5.387915915514519</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.946793854488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451604</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>314.4204617384253</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.331086635932</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>151.760684556015</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>251.156519019379</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.504804251687801</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.504804251687005</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>145.6036457539507</v>
       </c>
       <c r="I4" t="n">
-        <v>97.12575652240909</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>18.38275699775188</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2611846170395</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>148.8416146145257</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>189.6613184199807</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27791,7 +27791,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>88.10650140771929</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>53.57541870077381</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>11.54509302069374</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>216.1300314548367</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.94407062035827</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28070,10 +28070,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>66.13500063784016</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718794</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956761</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.1448029344739</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683757</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984523</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844689</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451705</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024191</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105528</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.97111971937</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645656</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.5085202602334</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031708</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903403</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575035</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682467</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111751</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770775</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.509505477794</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555193</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.6538261305506</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.50806051029</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704984</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.96245038085</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489529</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.469042636169</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.5375126291097</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820283</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908714</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753076</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942304</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577948</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753766</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892089</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314786</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646949</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934104</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308983</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983905</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.2610689435674</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780513</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.6833468877694</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472178</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026207</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139847</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>137.7376326175077</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>485.9276108700249</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>182.7118610708582</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>200.4500263280935</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.1625787491751</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>301.9817606876392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.6580975439395</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>250.3097721075164</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34447,13 +34447,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>382.686909664426</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.706990213763</v>
+        <v>19.61037504168942</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347154</v>
+        <v>80.64189725347177</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>553.3271000210027</v>
       </c>
       <c r="M2" t="n">
-        <v>634.29549891073</v>
+        <v>634.2954989107303</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178123</v>
       </c>
       <c r="O2" t="n">
-        <v>168.2384441888658</v>
+        <v>549.0386254516114</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641002</v>
+        <v>108.7381239641005</v>
       </c>
       <c r="Q2" t="n">
-        <v>243.0500028368608</v>
+        <v>32.99846259011613</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937387</v>
+        <v>330.8845780937389</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>506.9397916541356</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882714</v>
+        <v>178.3740265882716</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>382.4006121406974</v>
       </c>
       <c r="O3" t="n">
-        <v>275.8676431086728</v>
+        <v>552.2285252131351</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>426.0372609745598</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859964</v>
+        <v>231.5645562859966</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055957</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250111</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.820017355251</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101269</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124301</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084608</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110743</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>198.0078557514081</v>
+        <v>390.6371365497794</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7094770206874</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
@@ -35181,19 +35181,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>317.6558039850688</v>
+        <v>385.7577316459225</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35263,10 +35263,10 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>642.6313008560969</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556946</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>55.87423440419153</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>66.47561891376326</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>73.18080466315352</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>161.9999866016177</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.97859357997559</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>116.3353646931862</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38095,13 +38095,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>244.1325298845518</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3533226.149252384</v>
+        <v>3534986.67955517</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>98.518102170991</v>
+        <v>83.47004311320492</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916328</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370732</v>
+        <v>45.84481919370735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353343</v>
+        <v>20.11551727184605</v>
       </c>
       <c r="S3" t="n">
-        <v>146.682579483948</v>
+        <v>148.187383735635</v>
       </c>
       <c r="T3" t="n">
         <v>195.0661150959129</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>126.6948360719149</v>
       </c>
       <c r="H4" t="n">
-        <v>7.194834222910936</v>
+        <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097206</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444894001</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822505</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.4144181712553</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>218.2052159769868</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>22.99054469498532</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.2229739853305</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>198.5622246230542</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>353.7277987503138</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>302.0795580466789</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79977260571659</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>134.5665975534142</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.799772605716112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>197.9659484508405</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.733841663479</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>42.53134576113725</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758716</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833816</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>31.26260713376574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>51.3656974031032</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.176122950375</v>
+        <v>898.7103646892954</v>
       </c>
       <c r="C2" t="n">
-        <v>903.2136060099635</v>
+        <v>529.7478477488837</v>
       </c>
       <c r="D2" t="n">
-        <v>544.9479074032131</v>
+        <v>529.7478477488837</v>
       </c>
       <c r="E2" t="n">
-        <v>159.1596548049689</v>
+        <v>143.9595951506395</v>
       </c>
       <c r="F2" t="n">
-        <v>152.2141540557654</v>
+        <v>137.014094401436</v>
       </c>
       <c r="G2" t="n">
         <v>52.70091953961285</v>
@@ -4330,25 +4330,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088538</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118224</v>
+        <v>472.8546275572751</v>
       </c>
       <c r="L2" t="n">
-        <v>699.7444981326151</v>
+        <v>1022.283962163558</v>
       </c>
       <c r="M2" t="n">
-        <v>1327.697042054238</v>
+        <v>1205.218107927276</v>
       </c>
       <c r="N2" t="n">
-        <v>1951.178517094872</v>
+        <v>1632.597796005106</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291968</v>
+        <v>2176.146035202201</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016427</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4372,10 +4372,10 @@
         <v>2048.915294990309</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.915294990309</v>
+        <v>1675.449536729229</v>
       </c>
       <c r="Y2" t="n">
-        <v>1658.775963014497</v>
+        <v>1285.310204753417</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679828</v>
+        <v>200.0378524679829</v>
       </c>
       <c r="H3" t="n">
-        <v>99.0088177150748</v>
+        <v>99.00881771507483</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,28 +4412,28 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524144</v>
+        <v>118.4560672099614</v>
       </c>
       <c r="L3" t="n">
-        <v>882.1470455900087</v>
+        <v>620.3264609475555</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.737331912398</v>
+        <v>1257.964760382444</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931688</v>
+        <v>1910.138639685153</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892692</v>
+        <v>2456.844879646157</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665647</v>
       </c>
       <c r="S3" t="n">
         <v>2465.043046670055</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>479.5782799458068</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="C4" t="n">
-        <v>479.5782799458068</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="D4" t="n">
-        <v>479.5782799458068</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="E4" t="n">
-        <v>331.6651863634137</v>
+        <v>606.7141579046921</v>
       </c>
       <c r="F4" t="n">
-        <v>184.7752388655033</v>
+        <v>459.8242104067817</v>
       </c>
       <c r="G4" t="n">
-        <v>184.7752388655033</v>
+        <v>331.8496285159586</v>
       </c>
       <c r="H4" t="n">
         <v>177.5077295494317</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131526</v>
+        <v>152.6313247131525</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039136</v>
+        <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856121</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066377</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249435</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.16708335132</v>
+        <v>1041.167083351319</v>
       </c>
       <c r="Q4" t="n">
         <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>912.8607263634893</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>705.2494094117212</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>479.5782799458068</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="U4" t="n">
-        <v>479.5782799458068</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="V4" t="n">
-        <v>479.5782799458068</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="W4" t="n">
-        <v>479.5782799458068</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="X4" t="n">
-        <v>479.5782799458068</v>
+        <v>754.6272514870852</v>
       </c>
       <c r="Y4" t="n">
-        <v>479.5782799458068</v>
+        <v>754.6272514870852</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1305.40323675728</v>
+        <v>1462.025766388854</v>
       </c>
       <c r="C5" t="n">
-        <v>936.4407198168688</v>
+        <v>1462.025766388854</v>
       </c>
       <c r="D5" t="n">
-        <v>578.1750212101183</v>
+        <v>1103.760067782104</v>
       </c>
       <c r="E5" t="n">
-        <v>192.386768611874</v>
+        <v>717.9718151838595</v>
       </c>
       <c r="F5" t="n">
-        <v>185.4412678626705</v>
+        <v>711.026314434656</v>
       </c>
       <c r="G5" t="n">
-        <v>172.393890139502</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4570,19 +4570,19 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L5" t="n">
-        <v>784.1365874146478</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M5" t="n">
-        <v>1415.85439839796</v>
+        <v>1508.435042357452</v>
       </c>
       <c r="N5" t="n">
-        <v>2043.162066457806</v>
+        <v>2135.742710417299</v>
       </c>
       <c r="O5" t="n">
-        <v>2213.331091774766</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4594,25 +4594,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2455.608167058293</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U5" t="n">
-        <v>2455.608167058293</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V5" t="n">
-        <v>2455.608167058293</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W5" t="n">
-        <v>2455.608167058293</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="X5" t="n">
-        <v>2082.142408797214</v>
+        <v>1462.025766388854</v>
       </c>
       <c r="Y5" t="n">
-        <v>1692.003076821402</v>
+        <v>1462.025766388854</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.27200203395</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4752,22 +4752,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>1052.635600998958</v>
+        <v>918.0669404077147</v>
       </c>
       <c r="T7" t="n">
-        <v>1052.635600998958</v>
+        <v>692.4377437200797</v>
       </c>
       <c r="U7" t="n">
-        <v>1052.635600998958</v>
+        <v>403.2855672977595</v>
       </c>
       <c r="V7" t="n">
-        <v>852.067697339307</v>
+        <v>403.2855672977595</v>
       </c>
       <c r="W7" t="n">
-        <v>852.067697339307</v>
+        <v>403.2855672977595</v>
       </c>
       <c r="X7" t="n">
-        <v>624.0781464412896</v>
+        <v>403.2855672977595</v>
       </c>
       <c r="Y7" t="n">
         <v>403.2855672977595</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429.9946048304836</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="C8" t="n">
-        <v>72.69379801198481</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="D8" t="n">
-        <v>72.69379801198481</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="E8" t="n">
-        <v>72.69379801198481</v>
+        <v>1206.733776870417</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>795.7478720808097</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4810,13 +4810,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>1197.621189819594</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1384.320602645002</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1578.654815536984</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
         <v>1960.554969866447</v>
@@ -4849,7 +4849,7 @@
         <v>1206.733776870417</v>
       </c>
       <c r="Y8" t="n">
-        <v>816.5944448946054</v>
+        <v>1206.733776870417</v>
       </c>
     </row>
     <row r="9">
@@ -4889,13 +4889,13 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1278.563523185117</v>
       </c>
       <c r="N9" t="n">
-        <v>1430.928743686615</v>
+        <v>1477.220264837782</v>
       </c>
       <c r="O9" t="n">
         <v>1980.364752439338</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,19 +5114,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
         <v>1373.553594266881</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961526</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,19 +5527,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1074.481071167373</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1702.07903472198</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2253.988764961267</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,40 +5761,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6241,37 +6241,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,13 +6478,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6700,28 +6700,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797186</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797186</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,7 +6955,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>951.777212765616</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2415.384692536053</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2126.309465880251</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1871.624977674364</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1582.207807637403</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1354.218256739386</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1133.425677595856</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7201,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>416.009188706521</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>239.2643113182427</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888727</v>
+        <v>7.3281211888728</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>184.7513690535324</v>
+        <v>461.1122511579958</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>50.939347533903</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8230,10 +8230,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>185.2684807830933</v>
       </c>
       <c r="P5" t="n">
-        <v>278.7842827623789</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>48.10560617263505</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>213.8698272853573</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8476,7 +8476,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>347.103207002824</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.4949402405073</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.45968844823039</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>20.61870490125426</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>106.0841272570751</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823101</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>186.1428431935225</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>737409.2956891349</v>
+        <v>737409.295689135</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671995.3843943784</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671995.3843943783</v>
+        <v>671995.3843943784</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671995.3843943785</v>
+        <v>671995.3843943783</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>759463.6371244625</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="F2" t="n">
         <v>746610.6047132553</v>
@@ -26331,28 +26331,28 @@
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="J2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="K2" t="n">
         <v>746610.6047132551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132552</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="O2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918881</v>
+        <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008499352</v>
+        <v>4906.247008499838</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765847</v>
+        <v>775688.3472765845</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>2.654869427746673e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157139</v>
+        <v>128077.5968157138</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909051</v>
+        <v>190891.9800909052</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,28 +26426,28 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707319</v>
-      </c>
       <c r="H4" t="n">
-        <v>6897.424496707387</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707421</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707442</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707402</v>
+        <v>6897.424496707426</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
@@ -26456,7 +26456,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707398</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051737</v>
+        <v>86500.62127051735</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-305384.512128848</v>
+        <v>-305384.5121288479</v>
       </c>
       <c r="C6" t="n">
-        <v>478047.4998568684</v>
+        <v>478047.4998568683</v>
       </c>
       <c r="D6" t="n">
-        <v>482953.7468653677</v>
+        <v>482953.7468653679</v>
       </c>
       <c r="E6" t="n">
-        <v>-137445.0761383011</v>
+        <v>-137132.4348093795</v>
       </c>
       <c r="F6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.912467205</v>
       </c>
       <c r="G6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672054</v>
       </c>
       <c r="H6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.9124672053</v>
       </c>
       <c r="I6" t="n">
-        <v>638243.271138284</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="J6" t="n">
-        <v>465882.2787380029</v>
+        <v>466194.9200669245</v>
       </c>
       <c r="K6" t="n">
-        <v>638243.2711382839</v>
+        <v>638555.912467205</v>
       </c>
       <c r="L6" t="n">
-        <v>638243.2711382838</v>
+        <v>638555.9124672051</v>
       </c>
       <c r="M6" t="n">
-        <v>510165.6743225699</v>
+        <v>510478.3156514912</v>
       </c>
       <c r="N6" t="n">
-        <v>638243.2711382837</v>
+        <v>638555.9124672052</v>
       </c>
       <c r="O6" t="n">
-        <v>638243.2711382837</v>
+        <v>638555.9124672053</v>
       </c>
       <c r="P6" t="n">
-        <v>638243.2711382838</v>
+        <v>638555.9124672051</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225505</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26798,16 +26798,16 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225505</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915514519</v>
+        <v>5.387915915515053</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>513.9467938544877</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>658.7614942451604</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>513.946793854488</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>658.7614942451606</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544877</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>314.4204617384253</v>
+        <v>329.4685207962114</v>
       </c>
       <c r="H2" t="n">
         <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>119.331086635932</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.504804251687439</v>
       </c>
       <c r="S3" t="n">
-        <v>1.504804251687005</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>40.23565639660158</v>
       </c>
       <c r="H4" t="n">
-        <v>145.6036457539507</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775188</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.5352037822505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>194.71168796895</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>189.6613184199807</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27824,25 +27824,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>72.14290791478811</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>53.57541870077381</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>11.54509302069374</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>110.8373458992579</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29043,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29274,16 +29274,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29517,7 +29517,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718794</v>
+        <v>2.364173605718793</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956761</v>
+        <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.1448029344739</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683757</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984523</v>
+        <v>300.7317482984521</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844689</v>
+        <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451705</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024191</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105528</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
-        <v>339.97111971937</v>
+        <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645656</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602334</v>
+        <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031708</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903403</v>
+        <v>10.34916995903402</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575035</v>
+        <v>0.1891338884575034</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682467</v>
+        <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111751</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770775</v>
+        <v>43.55181365770773</v>
       </c>
       <c r="J3" t="n">
-        <v>119.509505477794</v>
+        <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555193</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305506</v>
+        <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.50806051029</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704984</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
-        <v>300.96245038085</v>
+        <v>300.9624503808498</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489529</v>
+        <v>241.5488997489527</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.469042636169</v>
+        <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.5375126291097</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820283</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908714</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753076</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942304</v>
+        <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577948</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753766</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892089</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314786</v>
+        <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646949</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934104</v>
+        <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308983</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983905</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435674</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780513</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.6833468877694</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472178</v>
+        <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026207</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139847</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982891</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,22 +32074,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>477.8500485393211</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>137.7376326175077</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
@@ -32098,10 +32098,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>200.4500263280935</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168942</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347177</v>
+        <v>404.7873098246363</v>
       </c>
       <c r="L2" t="n">
-        <v>553.3271000210027</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107303</v>
+        <v>184.7819654178975</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178123</v>
+        <v>431.6966546240705</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516114</v>
+        <v>549.0386254516111</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641005</v>
+        <v>430.5368321355829</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011613</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937389</v>
+        <v>66.41934108116013</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541356</v>
+        <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>178.3740265882716</v>
+        <v>644.0790903382713</v>
       </c>
       <c r="N3" t="n">
-        <v>382.4006121406974</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131351</v>
+        <v>552.2285252131348</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745598</v>
+        <v>158.5138398685255</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859966</v>
+        <v>21.48726855014735</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055957</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250111</v>
+        <v>185.255503425011</v>
       </c>
       <c r="M4" t="n">
-        <v>205.820017355251</v>
+        <v>205.8200173552509</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101269</v>
+        <v>206.4155889101268</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124301</v>
+        <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084608</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110743</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
@@ -34950,10 +34950,10 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605652</v>
+        <v>357.1563851436585</v>
       </c>
       <c r="P5" t="n">
-        <v>390.6371365497794</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>332.7559639452625</v>
@@ -35023,7 +35023,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>229.4160469348621</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
@@ -35032,10 +35032,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35187,7 +35187,7 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>385.7577316459225</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35257,16 +35257,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>508.2267551530873</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.0934576762708</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>339.2956687594469</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6.395920534174421</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
@@ -35746,10 +35746,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>66.47561891376326</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36126,10 +36126,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
